--- a/企画書0628.xlsx
+++ b/企画書0628.xlsx
@@ -185,43 +185,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>操作は全キャラに指示出す（(前進、攻撃、防御、気合、後退回避、ジャンプ回避）</t>
-    <rPh sb="0" eb="2">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シジ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ゼンシン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ボウギョ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>キアイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>コウタイ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>カイヒ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>カイヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>実行している指示はキャンセルできないが、まだ実行してない指示はキャンセルできる。</t>
     <rPh sb="0" eb="2">
       <t>ジッコウ</t>
@@ -327,6 +290,40 @@
     <t>&lt;-----時間があれば</t>
     <rPh sb="6" eb="8">
       <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作は全キャラに指示出す（(前進、攻撃、防御、気合、ジャンプ回避、後退回避）</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ゼンシン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ボウギョ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キアイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>コウタイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カイヒ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -381,16 +378,14 @@
       <charset val="128"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Noto Sans CJK JP Medium"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Noto Sans CJK JP Medium"/>
       <family val="2"/>
       <charset val="128"/>
@@ -438,15 +433,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="どちらでもない" xfId="2" builtinId="28"/>
@@ -731,138 +727,140 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.5">
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="C5" s="3" t="s">
+    <row r="5" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="D6" s="4" t="s">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
       <c r="K6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="D7" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="D7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="D8" s="4" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.5">
       <c r="D9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.5">
       <c r="D10" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="D11" s="5"/>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="D13" s="5" t="s">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="D13" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="D14" s="5" t="s">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="D14" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.5">
       <c r="D15" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.5">
       <c r="D16" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.5">
       <c r="D18" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.5">
+      <c r="D19" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.5">
+      <c r="D20" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="D19" s="1" t="s">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.5">
+      <c r="D22" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.5">
+      <c r="D23" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.5">
+      <c r="D24" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.5">
+      <c r="D25" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="D20" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="D22" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="D23" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="D24" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="D25" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.5">
       <c r="D27" s="1" t="s">
         <v>8</v>
       </c>
